--- a/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F847A11-56B6-46AE-8D5B-9A58E21BD25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1FA4EAF-A3E9-4D88-9A70-DDDBE701135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BB47009E-3211-447A-9092-9CDD89CC5B7C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FBA92D8E-E469-446F-9913-981293E35FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,201 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
     <t>8,37%</t>
   </si>
   <si>
@@ -116,33 +290,6 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
     <t>41,51%</t>
   </si>
   <si>
@@ -170,33 +317,6 @@
     <t>50,78%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
     <t>42,17%</t>
   </si>
   <si>
@@ -224,124 +344,55 @@
     <t>42,45%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>8,33%</t>
@@ -368,33 +419,6 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
     <t>41,07%</t>
   </si>
   <si>
@@ -420,30 +444,6 @@
   </si>
   <si>
     <t>48,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
   </si>
   <si>
     <t>42,84%</t>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C532A5-76E2-448F-A022-DF07BD6FD471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1311C1C-63B9-49F0-A75E-D626D591B972}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1249,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>18900</v>
+        <v>643</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1264,34 +1264,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>26533</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>643</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>58</v>
-      </c>
-      <c r="N10" s="7">
-        <v>45433</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,49 +1300,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>6895</v>
+        <v>2128</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4148</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5604</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12499</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,49 +1351,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>93732</v>
+        <v>3365</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1654</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5019</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>104</v>
-      </c>
-      <c r="I12" s="7">
-        <v>82761</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>215</v>
-      </c>
-      <c r="N12" s="7">
-        <v>176493</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1402,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>11059</v>
+        <v>16007</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14944</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7">
+        <v>37</v>
+      </c>
+      <c r="N13" s="7">
+        <v>30951</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1275</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12335</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1453,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>95218</v>
+        <v>19234</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15383</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7">
+        <v>34616</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>76</v>
-      </c>
-      <c r="I14" s="7">
-        <v>51580</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>180</v>
-      </c>
-      <c r="N14" s="7">
-        <v>146798</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,102 +1504,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>167753</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>393558</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>3365</v>
+        <v>11059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1654</v>
+        <v>1275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>5019</v>
+        <v>12335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1608,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>2128</v>
+        <v>6895</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5604</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="7">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
+        <v>12499</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2020</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4148</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,49 +1659,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>16007</v>
+        <v>18900</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
+        <v>35</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26533</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>58</v>
+      </c>
+      <c r="N18" s="7">
+        <v>45433</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14944</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="7">
-        <v>37</v>
-      </c>
-      <c r="N18" s="7">
-        <v>30951</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,46 +1710,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>643</v>
+        <v>93732</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="7">
+        <v>104</v>
+      </c>
+      <c r="I19" s="7">
+        <v>82761</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>215</v>
+      </c>
+      <c r="N19" s="7">
+        <v>176493</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>643</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>92</v>
@@ -1761,10 +1761,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7">
-        <v>19234</v>
+        <v>95218</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>93</v>
@@ -1776,10 +1776,10 @@
         <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I20" s="7">
-        <v>15383</v>
+        <v>51580</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>96</v>
@@ -1791,10 +1791,10 @@
         <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>34616</v>
+        <v>146798</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>99</v>
@@ -1812,49 +1812,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>167753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>393558</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>22265</v>
+        <v>11702</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>102</v>
@@ -1880,31 +1880,31 @@
         <v>104</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>28187</v>
+        <v>1275</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>14</v>
+      </c>
+      <c r="N22" s="7">
+        <v>12977</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="7">
-        <v>64</v>
-      </c>
-      <c r="N22" s="7">
-        <v>50452</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>109</v>
@@ -1967,10 +1967,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>109739</v>
+        <v>22265</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>119</v>
@@ -1982,10 +1982,10 @@
         <v>121</v>
       </c>
       <c r="H24" s="7">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>97705</v>
+        <v>28187</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>122</v>
@@ -1997,19 +1997,19 @@
         <v>124</v>
       </c>
       <c r="M24" s="7">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="N24" s="7">
-        <v>207444</v>
+        <v>50452</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,40 +2018,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D25" s="7">
-        <v>11702</v>
+        <v>109739</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>123</v>
+      </c>
+      <c r="I25" s="7">
+        <v>97705</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1275</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="N25" s="7">
-        <v>12977</v>
+        <v>207444</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>133</v>
@@ -2105,7 +2105,7 @@
         <v>181414</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>142</v>
@@ -2126,13 +2126,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>269</v>
@@ -2141,13 +2141,13 @@
         <v>201754</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -2156,13 +2156,13 @@
         <v>468934</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1FA4EAF-A3E9-4D88-9A70-DDDBE701135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{701C5648-443A-4B5D-8E69-CBDD60F01A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FBA92D8E-E469-446F-9913-981293E35FF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92457EAA-D72B-457E-95A8-30A7284B2A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,409 +65,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -574,39 +598,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -658,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -769,13 +793,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -784,6 +801,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -848,19 +872,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1311C1C-63B9-49F0-A75E-D626D591B972}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEED474-E5B4-4E52-932B-73FC0AE6E824}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1249,49 +1293,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,49 +1338,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,49 +1383,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1428,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>16007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1473,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7">
-        <v>19234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
-      </c>
-      <c r="N14" s="7">
-        <v>34616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,102 +1518,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>11059</v>
+        <v>40633</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>1275</v>
+        <v>29330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="N16" s="7">
-        <v>12335</v>
+        <v>69963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1616,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>6895</v>
+        <v>40743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>5604</v>
+        <v>29882</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>12499</v>
+        <v>70625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,49 +1667,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>18900</v>
+        <v>9830</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>26533</v>
+        <v>7770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>45433</v>
+        <v>17600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,49 +1718,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>93732</v>
+        <v>2744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>82761</v>
+        <v>4684</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>176493</v>
+        <v>7428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,49 +1769,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>95218</v>
+        <v>5398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>51580</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>146798</v>
+        <v>5398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,102 +1820,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>167753</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>393558</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>11702</v>
+        <v>73819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>1275</v>
+        <v>37633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="N22" s="7">
-        <v>12977</v>
+        <v>111451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +1924,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7">
-        <v>9023</v>
+        <v>68996</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="I23" s="7">
-        <v>7624</v>
+        <v>67824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>16647</v>
+        <v>136820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +1975,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12435</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="7">
         <v>27</v>
       </c>
-      <c r="D24" s="7">
-        <v>22265</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="7">
-        <v>37</v>
-      </c>
       <c r="I24" s="7">
-        <v>28187</v>
+        <v>20417</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>50452</v>
+        <v>32851</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,49 +2026,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>109739</v>
+        <v>6279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>97705</v>
+        <v>2940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>207444</v>
+        <v>9219</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,49 +2077,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>114451</v>
+        <v>6304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>66962</v>
+        <v>1275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>181414</v>
+        <v>7579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,55 +2128,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>174</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130089</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>362</v>
+      </c>
+      <c r="N27" s="7">
+        <v>297921</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>128</v>
+      </c>
+      <c r="D28" s="7">
+        <v>114451</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>98</v>
+      </c>
+      <c r="I28" s="7">
+        <v>66962</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>226</v>
+      </c>
+      <c r="N28" s="7">
+        <v>181414</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>129</v>
+      </c>
+      <c r="D29" s="7">
+        <v>109739</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>123</v>
+      </c>
+      <c r="I29" s="7">
+        <v>97705</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>252</v>
+      </c>
+      <c r="N29" s="7">
+        <v>207444</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22265</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>37</v>
+      </c>
+      <c r="I30" s="7">
+        <v>28187</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="7">
+        <v>64</v>
+      </c>
+      <c r="N30" s="7">
+        <v>50452</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9023</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7624</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
+        <v>16647</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>11702</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1275</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7">
+        <v>14</v>
+      </c>
+      <c r="N32" s="7">
+        <v>12977</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>269</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>201754</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>576</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>468934</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701C5648-443A-4B5D-8E69-CBDD60F01A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A0AAA0-BC7F-4D64-B675-6C7792685526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92457EAA-D72B-457E-95A8-30A7284B2A2F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA49C05-72E0-4F44-AC61-82923AF5FB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -95,400 +95,397 @@
     <t>40,9%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
   </si>
   <si>
     <t>40,93%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>41,01%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>31,51%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -903,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEED474-E5B4-4E52-932B-73FC0AE6E824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4DA684-F32C-48CB-87FD-1497DE11BA9C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,13 +1942,13 @@
         <v>67824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>165</v>
@@ -1960,13 +1957,13 @@
         <v>136820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1978,13 @@
         <v>12435</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -1996,13 +1993,13 @@
         <v>20417</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -2011,13 +2008,13 @@
         <v>32851</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2029,13 @@
         <v>6279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2047,13 +2044,13 @@
         <v>2940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2062,13 +2059,13 @@
         <v>9219</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2080,13 @@
         <v>6304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2098,13 +2095,13 @@
         <v>1275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2113,13 +2110,13 @@
         <v>7579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2184,13 @@
         <v>114451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>98</v>
@@ -2202,13 +2199,13 @@
         <v>66962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>226</v>
@@ -2217,13 +2214,13 @@
         <v>181414</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2235,13 @@
         <v>109739</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>123</v>
@@ -2253,13 +2250,13 @@
         <v>97705</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>252</v>
@@ -2268,13 +2265,13 @@
         <v>207444</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2286,13 @@
         <v>22265</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -2304,13 +2301,13 @@
         <v>28187</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -2319,10 +2316,10 @@
         <v>50452</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>134</v>
@@ -2358,10 +2355,10 @@
         <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -2370,10 +2367,10 @@
         <v>16647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>142</v>
@@ -2394,10 +2391,10 @@
         <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2406,13 +2403,13 @@
         <v>1275</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -2421,13 +2418,13 @@
         <v>12977</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A0AAA0-BC7F-4D64-B675-6C7792685526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BE5833-F370-452A-BCB3-8DE8D52347D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA49C05-72E0-4F44-AC61-82923AF5FB2F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{23064810-3E8D-4533-B695-38FFE0BDBC23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para si mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Siempre</t>
+    <t>Muchísimo</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,121 +92,85 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -218,13 +182,37 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -233,259 +221,241 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -900,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4DA684-F32C-48CB-87FD-1497DE11BA9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E2456-2E45-49EF-AEF2-B0D862E7B454}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1562,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>40633</v>
+        <v>35180</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1577,10 +1547,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>29330</v>
+        <v>50805</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1592,10 +1562,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>69963</v>
+        <v>85986</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1613,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>40743</v>
+        <v>30294</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1628,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>29882</v>
+        <v>36480</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1643,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>70625</v>
+        <v>66774</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1664,10 +1634,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>9830</v>
+        <v>2029</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1679,10 +1649,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>7770</v>
+        <v>8444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1694,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>17600</v>
+        <v>10473</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1715,10 +1685,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>2744</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -1730,10 +1700,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>4684</v>
+        <v>2886</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -1745,10 +1715,10 @@
         <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>7428</v>
+        <v>2886</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>51</v>
@@ -1766,49 +1736,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>5398</v>
+        <v>422</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>422</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,102 +1787,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <v>99348</v>
+        <v>67925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>98615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>166540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7">
-        <v>73819</v>
+        <v>55834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
+        <v>89</v>
+      </c>
+      <c r="I22" s="7">
+        <v>89526</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>169</v>
+      </c>
+      <c r="N22" s="7">
+        <v>145359</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7">
-        <v>57</v>
-      </c>
-      <c r="I22" s="7">
-        <v>37633</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="7">
-        <v>135</v>
-      </c>
-      <c r="N22" s="7">
-        <v>111451</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,49 +1891,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>68996</v>
+        <v>45447</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>74</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>53933</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>145</v>
+      </c>
+      <c r="N23" s="7">
+        <v>99380</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="7">
-        <v>84</v>
-      </c>
-      <c r="I23" s="7">
-        <v>67824</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="7">
-        <v>165</v>
-      </c>
-      <c r="N23" s="7">
-        <v>136820</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,49 +1942,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>12435</v>
+        <v>38084</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24174</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>39</v>
+      </c>
+      <c r="N24" s="7">
+        <v>62258</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="7">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20417</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="7">
-        <v>42</v>
-      </c>
-      <c r="N24" s="7">
-        <v>32851</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,49 +1993,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>6279</v>
+        <v>2027</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2940</v>
+        <v>4554</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>9219</v>
+        <v>6582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +2044,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>6304</v>
+        <v>1154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>596</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="7">
         <v>2</v>
       </c>
-      <c r="I26" s="7">
-        <v>1275</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M26" s="7">
-        <v>8</v>
-      </c>
       <c r="N26" s="7">
-        <v>7579</v>
+        <v>1751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2095,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>174</v>
-      </c>
       <c r="I27" s="7">
-        <v>130089</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>297921</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,46 +2151,46 @@
         <v>128</v>
       </c>
       <c r="D28" s="7">
-        <v>114451</v>
+        <v>91014</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H28" s="7">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7">
-        <v>66962</v>
+        <v>140331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="N28" s="7">
-        <v>181414</v>
+        <v>231345</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2199,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D29" s="7">
-        <v>109739</v>
+        <v>75741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="7">
         <v>120</v>
       </c>
-      <c r="H29" s="7">
-        <v>123</v>
-      </c>
       <c r="I29" s="7">
-        <v>97705</v>
+        <v>90412</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="N29" s="7">
-        <v>207444</v>
+        <v>166154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,49 +2250,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>22265</v>
+        <v>40113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I30" s="7">
-        <v>28187</v>
+        <v>32617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N30" s="7">
-        <v>50452</v>
+        <v>72730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2301,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>9023</v>
+        <v>2027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>7624</v>
+        <v>7440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N31" s="7">
-        <v>16647</v>
+        <v>9468</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2352,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>11702</v>
+        <v>1576</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>1275</v>
+        <v>596</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>12977</v>
+        <v>2172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,54 +2403,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>201754</v>
+        <v>271397</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>468934</v>
+        <v>481869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
